--- a/ILRG_Hluvukani_F1_parcels_limits/ILRG_Hluvukani_F1_redo_limites-media/ILRG_Hluvukani_F1_redo_limites.xlsx
+++ b/ILRG_Hluvukani_F1_parcels_limits/ILRG_Hluvukani_F1_redo_limites-media/ILRG_Hluvukani_F1_redo_limites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_F1_parcels_limit\ILRG_Hluvukani_F1_parcels_limit-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_F1_parcels_limits\ILRG_Hluvukani_F1_redo_limites-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE2A3C0-8CAC-4787-9967-06A280C0E921}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11659325-03C0-4C88-9230-3B7A98A4AFAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2515,8 +2515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,7 +2550,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="29">
-        <v>201908132</v>
+        <v>201909101</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>73</v>
